--- a/Unsupervised_learning/Marketing Plan ++.xlsx
+++ b/Unsupervised_learning/Marketing Plan ++.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfred\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfred\Documents\GitHub\DSaML_Projects\Unsupervised_learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB4312D-6722-49AF-850B-9A0ED15FDCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0C2D4B-C1B9-4E13-AC88-59809E57EAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD628FAE-BB56-4E9D-9C99-CE9B7831D9CC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>CC</t>
   </si>
@@ -131,6 +131,69 @@
   </si>
   <si>
     <t>Average Upgrade (1000 RPs) - How many RPs do you need to upgrade. They expire after 1 year!</t>
+  </si>
+  <si>
+    <t>Mainly Single Rooms for Business</t>
+  </si>
+  <si>
+    <t>High Longevity</t>
+  </si>
+  <si>
+    <t>Mainly Double Rooms, exclusive for Leisure</t>
+  </si>
+  <si>
+    <t>Very High Longevity</t>
+  </si>
+  <si>
+    <t>Mainly Double Rooms, exclusive for Business</t>
+  </si>
+  <si>
+    <t>Some suites are included ( &lt;4%)</t>
+  </si>
+  <si>
+    <t>Some suites are included ( 11%)</t>
+  </si>
+  <si>
+    <t>Some suites are included ( &lt;7%)</t>
+  </si>
+  <si>
+    <t>50/50 split in Longevity</t>
+  </si>
+  <si>
+    <t>Churn, Bad Rating 2</t>
+  </si>
+  <si>
+    <t>No churn, Bad Rating 1</t>
+  </si>
+  <si>
+    <t>Churn, Bad Rating 3</t>
+  </si>
+  <si>
+    <t>No churn, perfect</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Premium and Nomad</t>
+  </si>
+  <si>
+    <t>CS = 3</t>
+  </si>
+  <si>
+    <t>CS = 1; CC = 1 and 2</t>
+  </si>
+  <si>
+    <t>CS = 1; CC = 0 and 2</t>
+  </si>
+  <si>
+    <t>CC = 2, CS = 1 and 3</t>
+  </si>
+  <si>
+    <t>CC = 0 and 1, CS = 0 and 2</t>
+  </si>
+  <si>
+    <t>CS = 0</t>
   </si>
 </sst>
 </file>
@@ -198,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -208,6 +271,7 @@
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,23 +587,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B64660D-2C7F-4010-8599-269978032080}">
-  <dimension ref="A2:Y32"/>
+  <dimension ref="A2:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView tabSelected="1" topLeftCell="J4" workbookViewId="0">
+      <selection activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>0</v>
       </c>
@@ -559,7 +626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -601,7 +668,7 @@
         <v>0.2773643012960349</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -621,19 +688,19 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="9">
         <f t="shared" ref="J5:J8" si="2">+C5/$F$9</f>
         <v>7.40408058514051E-2</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="9">
         <f t="shared" si="0"/>
         <v>7.8852816630309255E-2</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="9">
         <f t="shared" si="0"/>
         <v>6.6598229180033358E-2</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="9">
         <f t="shared" si="0"/>
         <v>0.21949185166174773</v>
       </c>
@@ -644,7 +711,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>2</v>
       </c>
@@ -683,7 +750,7 @@
         <v>0.28544847940459389</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>3</v>
       </c>
@@ -703,19 +770,19 @@
       <c r="I7">
         <v>3</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="9">
         <f t="shared" si="2"/>
         <v>9.386629026049019E-2</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="9">
         <f t="shared" si="0"/>
         <v>5.3958680867445145E-2</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="9">
         <f t="shared" si="0"/>
         <v>6.9870396509688182E-2</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="9">
         <f t="shared" si="0"/>
         <v>0.21769536763762351</v>
       </c>
@@ -729,8 +796,11 @@
         <f>+M7</f>
         <v>0.21769536763762351</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C8">
         <f>+SUM(C4:C7)</f>
         <v>7945</v>
@@ -767,7 +837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="F9">
         <f>+SUM(F4:F7)</f>
         <v>15586</v>
@@ -779,12 +849,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="S10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="J11" t="s">
         <v>4</v>
       </c>
@@ -798,7 +868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="R13" s="7" t="s">
         <v>12</v>
       </c>
@@ -806,8 +876,11 @@
         <f>+K5+L5/2</f>
         <v>0.11215193122032593</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="S14" t="s">
         <v>14</v>
       </c>
@@ -815,7 +888,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="S15" t="s">
         <v>15</v>
       </c>
@@ -823,7 +896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="S16" t="s">
         <v>16</v>
       </c>
@@ -831,12 +904,36 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="18:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>42</v>
+      </c>
       <c r="S17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="18:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>41</v>
+      </c>
+      <c r="P18" t="s">
+        <v>46</v>
+      </c>
       <c r="S18" t="s">
         <v>18</v>
       </c>
@@ -844,7 +941,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="18:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>43</v>
+      </c>
+      <c r="P20" t="s">
+        <v>45</v>
+      </c>
       <c r="R20" s="7" t="s">
         <v>13</v>
       </c>
@@ -852,8 +969,17 @@
         <f>+J5+L5/2</f>
         <v>0.10733992044142178</v>
       </c>
-    </row>
-    <row r="21" spans="18:25" x14ac:dyDescent="0.3">
+      <c r="X20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" t="s">
+        <v>34</v>
+      </c>
       <c r="S21" t="s">
         <v>15</v>
       </c>
@@ -861,7 +987,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="18:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>38</v>
+      </c>
       <c r="S22" t="s">
         <v>16</v>
       </c>
@@ -869,7 +998,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="18:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>35</v>
+      </c>
       <c r="S23" t="s">
         <v>18</v>
       </c>
@@ -877,12 +1009,23 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="18:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="8:27" x14ac:dyDescent="0.3">
       <c r="U24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="18:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>37</v>
+      </c>
       <c r="R26" t="s">
         <v>24</v>
       </c>
@@ -890,13 +1033,26 @@
         <f>+L5+L7</f>
         <v>0.13646862568972154</v>
       </c>
-    </row>
-    <row r="27" spans="18:25" x14ac:dyDescent="0.3">
+      <c r="AA26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="8:27" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>40</v>
+      </c>
       <c r="R27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="18:25" x14ac:dyDescent="0.3">
+      <c r="Y27" s="8">
+        <f>+J4+K4+J6+K6</f>
+        <v>0.49833183626331323</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="8:27" x14ac:dyDescent="0.3">
       <c r="R29" t="s">
         <v>30</v>
       </c>
@@ -904,18 +1060,21 @@
         <f>+M4</f>
         <v>0.2773643012960349</v>
       </c>
-    </row>
-    <row r="30" spans="18:25" x14ac:dyDescent="0.3">
+      <c r="V29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="8:27" x14ac:dyDescent="0.3">
       <c r="R30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="18:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="8:27" x14ac:dyDescent="0.3">
       <c r="R31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="18:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="8:27" x14ac:dyDescent="0.3">
       <c r="R32" t="s">
         <v>29</v>
       </c>
